--- a/info/metricas/NN/TANH/NN1.xlsx
+++ b/info/metricas/NN/TANH/NN1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,34 +436,34 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MSE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MeanAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MedianAE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>MaxError</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>MSE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>MeanAE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MedianAE</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>R2</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>varianzaExplicada</t>
@@ -471,10 +471,20 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>SMAPE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Iteracion</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Tecnica</t>
         </is>
@@ -485,34 +495,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1822.2744140625</v>
+        <v>-0.4003303128873668</v>
       </c>
       <c r="C2" t="n">
-        <v>174173.2636168994</v>
+        <v>523371.6792589994</v>
       </c>
       <c r="D2" t="n">
-        <v>244.5017847851409</v>
+        <v>435.5816791231973</v>
       </c>
       <c r="E2" t="n">
-        <v>1243047.073847656</v>
+        <v>137.712744140625</v>
       </c>
       <c r="F2" t="n">
-        <v>106.9238415527344</v>
+        <v>11071179.53827431</v>
       </c>
       <c r="G2" t="n">
-        <v>0.537361245388258</v>
+        <v>2631.86177520752</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5818509315018952</v>
-      </c>
-      <c r="I2" t="inlineStr">
+        <v>0.04572909209339426</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.68600089837435e+16</v>
+      </c>
+      <c r="J2" t="n">
+        <v>717792.4810710727</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>TANH1</t>
         </is>
       </c>
     </row>
@@ -521,322 +537,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1854.726516113281</v>
+        <v>-0.4008256707201847</v>
       </c>
       <c r="C3" t="n">
-        <v>175925.1848593997</v>
+        <v>518042.3110210479</v>
       </c>
       <c r="D3" t="n">
-        <v>245.9279221727565</v>
+        <v>432.5677543358938</v>
       </c>
       <c r="E3" t="n">
-        <v>1250297.556326294</v>
+        <v>137.1060119628906</v>
       </c>
       <c r="F3" t="n">
-        <v>105.8945281982422</v>
+        <v>10994574.61195541</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5321908603909756</v>
+        <v>2634.896186218262</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5752819629285162</v>
-      </c>
-      <c r="I3" t="inlineStr">
+        <v>0.04801405533190939</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.319584150370412e+16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>758119.4615622824</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>TANH</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1795.79392578125</v>
-      </c>
-      <c r="C4" t="n">
-        <v>180203.9408108056</v>
-      </c>
-      <c r="D4" t="n">
-        <v>248.835861348558</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1265081.519096069</v>
-      </c>
-      <c r="F4" t="n">
-        <v>115.3197576904297</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.5291472726014239</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.5655587621184892</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>TANH</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1884.5265625</v>
-      </c>
-      <c r="C5" t="n">
-        <v>186104.030743405</v>
-      </c>
-      <c r="D5" t="n">
-        <v>250.1803492934905</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1271916.895808106</v>
-      </c>
-      <c r="F5" t="n">
-        <v>110.4509967041016</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.5227039659232592</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.5652236698292741</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>TANH</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1878.05029296875</v>
-      </c>
-      <c r="C6" t="n">
-        <v>173439.8658304786</v>
-      </c>
-      <c r="D6" t="n">
-        <v>240.4457465825595</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1222185.72987915</v>
-      </c>
-      <c r="F6" t="n">
-        <v>105.610595703125</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.5390749860265545</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.579875553172277</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>TANH</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1856.790126953125</v>
-      </c>
-      <c r="C7" t="n">
-        <v>182139.264298599</v>
-      </c>
-      <c r="D7" t="n">
-        <v>252.7746583473375</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1284853.588379516</v>
-      </c>
-      <c r="F7" t="n">
-        <v>116.7056274414062</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.5290623674620711</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.5697315332261947</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>TANH</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1886.974013671875</v>
-      </c>
-      <c r="C8" t="n">
-        <v>155062.5242308745</v>
-      </c>
-      <c r="D8" t="n">
-        <v>231.6264209061224</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1177357.09746582</v>
-      </c>
-      <c r="F8" t="n">
-        <v>110.5317468261719</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.5498881929768433</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.5897349266217902</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>TANH</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1859.217944335937</v>
-      </c>
-      <c r="C9" t="n">
-        <v>162078.0913018108</v>
-      </c>
-      <c r="D9" t="n">
-        <v>235.9093133945979</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1199127.039984741</v>
-      </c>
-      <c r="F9" t="n">
-        <v>108.4767639160156</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.5413303282379425</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.5752782744162848</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>TANH</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1850.408112792969</v>
-      </c>
-      <c r="C10" t="n">
-        <v>167624.598586346</v>
-      </c>
-      <c r="D10" t="n">
-        <v>241.6408284903464</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1228260.331216431</v>
-      </c>
-      <c r="F10" t="n">
-        <v>109.9325817871094</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.5433334974094259</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.5795712327833697</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>TANH</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1844.060280761719</v>
-      </c>
-      <c r="C11" t="n">
-        <v>167783.5036224475</v>
-      </c>
-      <c r="D11" t="n">
-        <v>239.7033857977111</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1218412.310009766</v>
-      </c>
-      <c r="F11" t="n">
-        <v>107.7603094482422</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.5387278097367472</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.5730808844009978</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>TANH1</t>
         </is>
       </c>
     </row>

--- a/info/metricas/NN/TANH/NN1.xlsx
+++ b/info/metricas/NN/TANH/NN1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,31 +495,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.4003303128873668</v>
+        <v>0.5374070872599455</v>
       </c>
       <c r="C2" t="n">
-        <v>523371.6792589994</v>
+        <v>172015.7274259467</v>
       </c>
       <c r="D2" t="n">
-        <v>435.5816791231973</v>
+        <v>240.0224588369254</v>
       </c>
       <c r="E2" t="n">
-        <v>137.712744140625</v>
+        <v>106.3618072509766</v>
       </c>
       <c r="F2" t="n">
-        <v>11071179.53827431</v>
+        <v>1220274.180726929</v>
       </c>
       <c r="G2" t="n">
-        <v>2631.86177520752</v>
+        <v>1877.173217773438</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04572909209339426</v>
+        <v>0.5789714735367424</v>
       </c>
       <c r="I2" t="n">
-        <v>2.68600089837435e+16</v>
+        <v>3.121462402834849e+16</v>
       </c>
       <c r="J2" t="n">
-        <v>717792.4810710727</v>
+        <v>-102706.7206511705</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -537,31 +537,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.4008256707201847</v>
+        <v>0.5413894931143927</v>
       </c>
       <c r="C3" t="n">
-        <v>518042.3110210479</v>
+        <v>161296.069747554</v>
       </c>
       <c r="D3" t="n">
-        <v>432.5677543358938</v>
+        <v>239.788610195517</v>
       </c>
       <c r="E3" t="n">
-        <v>137.1060119628906</v>
+        <v>114.5493096923828</v>
       </c>
       <c r="F3" t="n">
-        <v>10994574.61195541</v>
+        <v>1219085.294234009</v>
       </c>
       <c r="G3" t="n">
-        <v>2634.896186218262</v>
+        <v>1853.75013671875</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04801405533190939</v>
+        <v>0.5718832463849914</v>
       </c>
       <c r="I3" t="n">
-        <v>2.319584150370412e+16</v>
+        <v>4.314419165712353e+16</v>
       </c>
       <c r="J3" t="n">
-        <v>758119.4615622824</v>
+        <v>-105960.9655999311</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -569,6 +569,342 @@
         </is>
       </c>
       <c r="L3" t="inlineStr">
+        <is>
+          <t>TANH1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5360878211983569</v>
+      </c>
+      <c r="C4" t="n">
+        <v>166194.1876244255</v>
+      </c>
+      <c r="D4" t="n">
+        <v>241.3727953204763</v>
+      </c>
+      <c r="E4" t="n">
+        <v>114.067272644043</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1227139.291409302</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1839.185869140625</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5702954357484153</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.10237394181475e+16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-94925.43341425667</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>TANH1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5300222909488793</v>
+      </c>
+      <c r="C5" t="n">
+        <v>185319.6921087494</v>
+      </c>
+      <c r="D5" t="n">
+        <v>254.4811119320898</v>
+      </c>
+      <c r="E5" t="n">
+        <v>118.6265759277344</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1293781.973062744</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1843.4678125</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5684636243976557</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.749809970793147e+16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-107512.7338509109</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>TANH1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5404870823213141</v>
+      </c>
+      <c r="C6" t="n">
+        <v>168711.1198889381</v>
+      </c>
+      <c r="D6" t="n">
+        <v>240.2325050290663</v>
+      </c>
+      <c r="E6" t="n">
+        <v>111.1780053710937</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1221101.823062744</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1795.396647949219</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5795161902818404</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.841393803412467e+16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-96841.34276898924</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>TANH1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.535720292597047</v>
+      </c>
+      <c r="C7" t="n">
+        <v>173215.6355330155</v>
+      </c>
+      <c r="D7" t="n">
+        <v>246.0401478617787</v>
+      </c>
+      <c r="E7" t="n">
+        <v>112.4175903320312</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1250622.071581421</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1784.146174316406</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.5725392121550481</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.432156488118608e+16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-101848.5578509977</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>TANH1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5372460033708387</v>
+      </c>
+      <c r="C8" t="n">
+        <v>175630.7443222263</v>
+      </c>
+      <c r="D8" t="n">
+        <v>241.6130473434205</v>
+      </c>
+      <c r="E8" t="n">
+        <v>101.6087646484375</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1228119.119646607</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1885.268383789063</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.5827028354652697</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.37677469383279e+16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-103683.4146577583</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>TANH1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.535238131839991</v>
+      </c>
+      <c r="C9" t="n">
+        <v>175420.2699375135</v>
+      </c>
+      <c r="D9" t="n">
+        <v>243.6658332610069</v>
+      </c>
+      <c r="E9" t="n">
+        <v>108.0930627441406</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1238553.430465698</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1848.851594238281</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.5824362361759241</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.262556162487814e+16</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-87745.09648207971</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>TANH1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5251372401312819</v>
+      </c>
+      <c r="C10" t="n">
+        <v>179715.177287755</v>
+      </c>
+      <c r="D10" t="n">
+        <v>246.3714993440432</v>
+      </c>
+      <c r="E10" t="n">
+        <v>108.7536047363281</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1252306.331165771</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1887.834060058594</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.5665045385697758</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.921915869802851e+16</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-101057.3901798653</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>TANH1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5417775899161161</v>
+      </c>
+      <c r="C11" t="n">
+        <v>167516.0649067067</v>
+      </c>
+      <c r="D11" t="n">
+        <v>237.4900710693936</v>
+      </c>
+      <c r="E11" t="n">
+        <v>104.5870129394531</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1207162.031245728</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1856.856228027344</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.5874216577710172</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.648331105852237e+16</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-92471.33971793207</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>TANH1</t>
         </is>
